--- a/biology/Botanique/Lardizabalaceae/Lardizabalaceae.xlsx
+++ b/biology/Botanique/Lardizabalaceae/Lardizabalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lardizabalacées (Lardizabalaceae R.Br.) regroupe des plantes dicotylédones. Ce sont des lianes ou des arbustes, des régions tempérées à subtropicales, originaires de l'Inde, de l'Extrême-Orient ou du Chili. Les follicules charnus des espèces du genre Akebia sont comestibles.
 Selon Watson &amp; Dallwitz elle comprend 35 espèces réparties en 8 genres : Akebia, Boquila, Decaisnea, Holboellia, Lardizabala, Parvatia, Sinofranchetia, Stauntonia. La classification phylogénétique y ajoute le genre Sargentodoxa, classiquement rattaché aux Sargentodoxacées dont il est l'unique genre.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Lardizabala nommé en l'honneur de l'homme d'état espagnol Miguel de Lardizábal (es) (1744-1823) qui étudia la géologie et l’histoire au jardin botanique de Madrid, entra à l'académicie royale de géographie et d'histoire de Valladolid et obtint une place au Conseil des Indes[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Lardizabala nommé en l'honneur de l'homme d'état espagnol Miguel de Lardizábal (es) (1744-1823) qui étudia la géologie et l’histoire au jardin botanique de Madrid, entra à l'académicie royale de géographie et d'histoire de Valladolid et obtint une place au Conseil des Indes,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 avr. 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 avr. 2010) :
 Akebia
 Archakebia
 Boquila
@@ -556,7 +572,7 @@
 Sargentodoxa
 Sinofranchetia
 Stauntonia
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 Akebia Decaisne
 Boquila Decaisne
 Decaisnea J. D. Hooker &amp; Thomson
@@ -566,7 +582,7 @@
 Sargentodoxa Rehder &amp; E.H.Wilson
 Sinofranchetia (Diels) Hemsl.
 Stauntonia DC.
-Selon DELTA Angio           (23 avr. 2010)[6] :
+Selon DELTA Angio           (23 avr. 2010) :
 Akebia
 Boquila
 Decaisnea
@@ -575,7 +591,7 @@
 Parvatia
 Sinofranchetia
 Stauntonia
-Selon ITIS      (23 avr. 2010)[7] :
+Selon ITIS      (23 avr. 2010) :
 Akebia  Dcne.</t>
         </is>
       </c>
@@ -604,9 +620,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (23 avril 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 avril 2010) :
 genre Akebia
 Akebia longeracemosa
 Akebia quinata
@@ -640,7 +658,7 @@
 Stauntonia duclouxii
 Stauntonia hexaphylla
 Stauntonia obovatifoliola
-Selon ITIS      (23 avril 2010)[9] :
+Selon ITIS      (23 avril 2010) :
 genre Akebia  Dcne.
 Akebia × pentaphylla  (Makino) Makino
 Akebia quinata  (Houtt.) Dcne.</t>
